--- a/Datos_2020_2021/REVISION CBA.xlsx
+++ b/Datos_2020_2021/REVISION CBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2021/SARDINA_COMUN/INFORME_FINAL/Datos_2020_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1840F1A9-FAC0-CF4A-B55D-46794E03EA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E005843-A20C-9F4C-B2E1-1CCA44E150C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21960" yWindow="560" windowWidth="28460" windowHeight="22160" activeTab="1" xr2:uid="{CE91A28B-B59E-AD44-B768-15F078088232}"/>
+    <workbookView xWindow="20800" yWindow="980" windowWidth="25420" windowHeight="22160" activeTab="1" xr2:uid="{CE91A28B-B59E-AD44-B768-15F078088232}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchoveta" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
   <si>
     <t>YTP_r0W_actual</t>
   </si>
@@ -138,6 +138,9 @@
   <si>
     <t>Zrms2020/21</t>
   </si>
+  <si>
+    <t>captura descartada</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +151,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +169,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -420,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -542,6 +552,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12997,10 +13010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A2A72-5416-4A4C-83E7-4BDB1B491C12}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13856,6 +13869,10 @@
         <f t="shared" si="9"/>
         <v>0.15463339267121215</v>
       </c>
+      <c r="W19" s="2">
+        <f>(W20*0.04)</f>
+        <v>15049.800000000001</v>
+      </c>
       <c r="Y19" t="s">
         <v>25</v>
       </c>
@@ -13896,6 +13913,13 @@
       <c r="S20">
         <v>230.19499999999999</v>
       </c>
+      <c r="U20" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20">
+        <f>+W22+W21</f>
+        <v>376245</v>
+      </c>
       <c r="X20" s="2"/>
       <c r="Z20" s="2">
         <v>28823.3</v>
@@ -13937,6 +13961,17 @@
         <f t="shared" si="11"/>
         <v>9.9224215303465018E-3</v>
       </c>
+      <c r="U21" s="79">
+        <f>+W19*V21</f>
+        <v>2793.56</v>
+      </c>
+      <c r="V21" s="1">
+        <f>+W21/W20</f>
+        <v>0.1856210713763638</v>
+      </c>
+      <c r="W21" s="78">
+        <v>69839</v>
+      </c>
       <c r="Y21" s="33" t="s">
         <v>26</v>
       </c>
@@ -13966,22 +14001,40 @@
         <v>219263</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="W22" s="33">
+      <c r="U22" s="79">
+        <f>+V22*W19</f>
+        <v>12256.24</v>
+      </c>
+      <c r="V22" s="1">
+        <f>+W22/W20</f>
+        <v>0.81437892862363614</v>
+      </c>
+      <c r="W22" s="50">
         <v>306406</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="2">
         <f>+Y22*0.7</f>
         <v>273907.20000000001</v>
       </c>
       <c r="Y22" s="33">
         <v>391296</v>
       </c>
-      <c r="Z22" s="1"/>
+      <c r="Z22" s="2">
+        <v>359250</v>
+      </c>
+      <c r="AA22" s="77">
+        <f>+Z22*(1+W24)</f>
+        <v>373620</v>
+      </c>
+      <c r="AC22" s="23">
+        <v>391294</v>
+      </c>
     </row>
     <row r="23" spans="14:30" x14ac:dyDescent="0.2">
       <c r="N23" t="s">
         <v>27</v>
       </c>
+      <c r="U23" s="1"/>
       <c r="W23" s="75">
         <v>0.81</v>
       </c>
@@ -14005,6 +14058,13 @@
       <c r="S24">
         <v>2698.14</v>
       </c>
+      <c r="U24" s="79">
+        <f>+U21+W21</f>
+        <v>72632.56</v>
+      </c>
+      <c r="W24">
+        <v>0.04</v>
+      </c>
       <c r="Z24">
         <v>175515</v>
       </c>
@@ -14024,6 +14084,10 @@
     <row r="25" spans="14:30" x14ac:dyDescent="0.2">
       <c r="N25" t="s">
         <v>28</v>
+      </c>
+      <c r="U25" s="79">
+        <f>+U22+W22</f>
+        <v>318662.24</v>
       </c>
       <c r="Y25" t="s">
         <v>28</v>
@@ -14168,6 +14232,66 @@
         <f>+Y32*0.96</f>
         <v>370045.44</v>
       </c>
+      <c r="AA32" s="2">
+        <f>+Y32-Z32</f>
+        <v>15418.559999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="25:31" x14ac:dyDescent="0.2">
+      <c r="Y33" s="2">
+        <f>+X30+X22</f>
+        <v>385464</v>
+      </c>
+      <c r="AA33" s="5">
+        <f>+Z32*0.3</f>
+        <v>111013.632</v>
+      </c>
+      <c r="AB33">
+        <f>+W22</f>
+        <v>306406</v>
+      </c>
+      <c r="AC33" s="2">
+        <f>+AB33+AA33</f>
+        <v>417419.63199999998</v>
+      </c>
+      <c r="AE33" s="2">
+        <f>+Z32-AA33</f>
+        <v>259031.80800000002</v>
+      </c>
+    </row>
+    <row r="34" spans="25:31" x14ac:dyDescent="0.2">
+      <c r="AA34" s="5">
+        <f>+Z32*0.25</f>
+        <v>92511.360000000001</v>
+      </c>
+      <c r="AC34" s="2">
+        <f>+AB33+AA34</f>
+        <v>398917.36</v>
+      </c>
+      <c r="AE34" s="2">
+        <f>+Z32-AA34</f>
+        <v>277534.08000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="25:31" x14ac:dyDescent="0.2">
+      <c r="AA35" s="5">
+        <f>+Z32*0.2</f>
+        <v>74009.088000000003</v>
+      </c>
+      <c r="AC35" s="2">
+        <f>+AB33+AA35</f>
+        <v>380415.08799999999</v>
+      </c>
+      <c r="AE35" s="2">
+        <f>+Z32-AA35</f>
+        <v>296036.35200000001</v>
+      </c>
+    </row>
+    <row r="36" spans="25:31" x14ac:dyDescent="0.2">
+      <c r="AA36" s="5"/>
+    </row>
+    <row r="37" spans="25:31" x14ac:dyDescent="0.2">
+      <c r="AA37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos_2020_2021/REVISION CBA.xlsx
+++ b/Datos_2020_2021/REVISION CBA.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2021/SARDINA_COMUN/INFORME_FINAL/Datos_2020_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E005843-A20C-9F4C-B2E1-1CCA44E150C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05B8268-7C52-FF41-9EBE-F34CEC065709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20800" yWindow="980" windowWidth="25420" windowHeight="22160" activeTab="1" xr2:uid="{CE91A28B-B59E-AD44-B768-15F078088232}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29300" windowHeight="22160" activeTab="2" xr2:uid="{CE91A28B-B59E-AD44-B768-15F078088232}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchoveta" sheetId="1" r:id="rId1"/>
     <sheet name="SardinaComún" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
   <si>
     <t>YTP_r0W_actual</t>
   </si>
@@ -141,6 +142,99 @@
   <si>
     <t>captura descartada</t>
   </si>
+  <si>
+    <t>semestre</t>
+  </si>
+  <si>
+    <t>proporción semestral</t>
+  </si>
+  <si>
+    <t>captura año biológico</t>
+  </si>
+  <si>
+    <t>captura semestral</t>
+  </si>
+  <si>
+    <t>Captura año biológico 2020/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captura año calendario  2021 </t>
+  </si>
+  <si>
+    <t>CRMS año biológico 2021/2022</t>
+  </si>
+  <si>
+    <t>Supuesto de captura descartada 2021 (4%)</t>
+  </si>
+  <si>
+    <t>Captura año calendario 2021 - captura descartada</t>
+  </si>
+  <si>
+    <t>Bajo un escenario de reclutamiento reciente (2013-2021)</t>
+  </si>
+  <si>
+    <t>Captura año biológico 2020/21 (datos sernapesca)</t>
+  </si>
+  <si>
+    <t>2do semestre 2020</t>
+  </si>
+  <si>
+    <t>1er semestre 2021</t>
+  </si>
+  <si>
+    <t>Captura año biológico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captura año biológico  2020/21 </t>
+  </si>
+  <si>
+    <t>Cálculo de CBA 2021 (2da Revisión de Informe)</t>
+  </si>
+  <si>
+    <t>Re-Cálculo de CBA 2021 nuevas consideraciones</t>
+  </si>
+  <si>
+    <t>Captura año biológico 2020/2021 - captura descartada</t>
+  </si>
+  <si>
+    <t>CRMS año biológico 2021/2022 - captura descartada</t>
+  </si>
+  <si>
+    <t>19% segundo semestre 2021</t>
+  </si>
+  <si>
+    <t>20% segundo semestre 2021</t>
+  </si>
+  <si>
+    <t>25% segundo semestre 2021</t>
+  </si>
+  <si>
+    <t>30% segundo semestre 2021</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>semestre 1</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>captura 2do semestre 2021</t>
+  </si>
+  <si>
+    <t>captura 1er semestre 2022</t>
+  </si>
+  <si>
+    <t>Meses</t>
+  </si>
+  <si>
+    <t>Desembarques mensuales de sardina común registrados por sernapesca</t>
+  </si>
+  <si>
+    <t>semestre 2</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +245,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,8 +276,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -555,6 +711,120 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13012,7 +13282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A2A72-5416-4A4C-83E7-4BDB1B491C12}">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
@@ -14297,4 +14567,806 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0A6E0D-0E9F-FB4A-802E-F7B39514A022}">
+  <dimension ref="C5:V38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C5" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="C6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="5">
+        <f>+G7+G8</f>
+        <v>385.464</v>
+      </c>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5">
+        <f>391296/1000</f>
+        <v>391.29599999999999</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <f>+D7*0.7</f>
+        <v>273.90719999999999</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5">
+        <f>+J6*0.04</f>
+        <v>15.418560000000001</v>
+      </c>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5">
+        <f>371856/1000</f>
+        <v>371.85599999999999</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <f>+D8*0.3</f>
+        <v>111.5568</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="82">
+        <f>+J6-J7</f>
+        <v>370.04543999999999</v>
+      </c>
+      <c r="K8" s="86"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="3:12" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="21"/>
+      <c r="D10" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="5">
+        <f>+D11</f>
+        <v>376.245</v>
+      </c>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="94">
+        <f>+G12+G13</f>
+        <v>376.245</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="5">
+        <f>+J10*0.04</f>
+        <v>15.049800000000001</v>
+      </c>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="81">
+        <f>+G12/D11</f>
+        <v>0.1856210713763638</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <f>69839/1000</f>
+        <v>69.838999999999999</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="82">
+        <f>+J10+J11</f>
+        <v>391.29480000000001</v>
+      </c>
+      <c r="K12" s="86"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="81">
+        <f>+G13/D11</f>
+        <v>0.81437892862363626</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <f>306406/1000</f>
+        <v>306.40600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="C16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5">
+        <f>+J10</f>
+        <v>376.245</v>
+      </c>
+      <c r="E17" s="81">
+        <f>+E13</f>
+        <v>0.81437892862363626</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <f>+G13</f>
+        <v>306.40600000000001</v>
+      </c>
+      <c r="I17" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="89">
+        <f>+D18*0.19</f>
+        <v>67.8265344</v>
+      </c>
+      <c r="K17" s="89">
+        <f>+D18-J17</f>
+        <v>289.15522559999999</v>
+      </c>
+      <c r="L17" s="90">
+        <f>+G17+J17</f>
+        <v>374.23253440000002</v>
+      </c>
+      <c r="M17" s="2">
+        <f>+J17+K17</f>
+        <v>356.98176000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5">
+        <f>+D8*0.96</f>
+        <v>356.98176000000001</v>
+      </c>
+      <c r="E18" s="81">
+        <f>+E12</f>
+        <v>0.1856210713763638</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <f>+D18*0.19</f>
+        <v>67.8265344</v>
+      </c>
+      <c r="I18" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="89">
+        <f>+D18*0.2</f>
+        <v>71.396352000000007</v>
+      </c>
+      <c r="K18" s="89">
+        <f>+D18-J18</f>
+        <v>285.58540800000003</v>
+      </c>
+      <c r="L18" s="90">
+        <f>+J18+G17</f>
+        <v>377.80235200000004</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" ref="M18:M20" si="0">+J18+K18</f>
+        <v>356.98176000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="G19" s="87"/>
+      <c r="I19" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="89">
+        <f>+D18*0.25</f>
+        <v>89.245440000000002</v>
+      </c>
+      <c r="K19" s="89">
+        <f>+D18-J19</f>
+        <v>267.73631999999998</v>
+      </c>
+      <c r="L19" s="90">
+        <f>+J19+G17</f>
+        <v>395.65143999999998</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="0"/>
+        <v>356.98176000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E20" s="80"/>
+      <c r="I20" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="89">
+        <f>+D18*0.3</f>
+        <v>107.094528</v>
+      </c>
+      <c r="K20" s="89">
+        <f>+D18-J20</f>
+        <v>249.88723200000001</v>
+      </c>
+      <c r="L20" s="90">
+        <f>+J20+G17</f>
+        <v>413.50052800000003</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="0"/>
+        <v>356.98176000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E21" s="80"/>
+    </row>
+    <row r="22" spans="3:21" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="80"/>
+      <c r="N22" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+    </row>
+    <row r="23" spans="3:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="99">
+        <v>2015</v>
+      </c>
+      <c r="P23" s="99">
+        <v>2016</v>
+      </c>
+      <c r="Q23" s="99">
+        <v>2017</v>
+      </c>
+      <c r="R23" s="99">
+        <v>2018</v>
+      </c>
+      <c r="S23" s="99">
+        <v>2019</v>
+      </c>
+      <c r="T23" s="99">
+        <v>2020</v>
+      </c>
+      <c r="U23" s="100">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="N24" s="109">
+        <v>1</v>
+      </c>
+      <c r="O24" s="110">
+        <v>365</v>
+      </c>
+      <c r="P24" s="110">
+        <v>240</v>
+      </c>
+      <c r="Q24" s="110">
+        <v>181</v>
+      </c>
+      <c r="R24" s="111">
+        <v>7</v>
+      </c>
+      <c r="S24" s="110">
+        <v>55</v>
+      </c>
+      <c r="T24" s="112">
+        <v>0</v>
+      </c>
+      <c r="U24" s="113">
+        <v>6.4220000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="N25" s="109">
+        <v>2</v>
+      </c>
+      <c r="O25" s="110">
+        <v>16832</v>
+      </c>
+      <c r="P25" s="110">
+        <v>29430</v>
+      </c>
+      <c r="Q25" s="110">
+        <v>20588</v>
+      </c>
+      <c r="R25" s="111">
+        <v>15699</v>
+      </c>
+      <c r="S25" s="110">
+        <v>13245</v>
+      </c>
+      <c r="T25" s="112">
+        <v>5302</v>
+      </c>
+      <c r="U25" s="113">
+        <v>4023.6589999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="N26" s="109">
+        <v>3</v>
+      </c>
+      <c r="O26" s="110">
+        <v>78093</v>
+      </c>
+      <c r="P26" s="110">
+        <v>39823</v>
+      </c>
+      <c r="Q26" s="110">
+        <v>166107</v>
+      </c>
+      <c r="R26" s="111">
+        <v>127241</v>
+      </c>
+      <c r="S26" s="110">
+        <v>107962</v>
+      </c>
+      <c r="T26" s="112">
+        <v>33431</v>
+      </c>
+      <c r="U26" s="113">
+        <v>182026.33399999992</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="N27" s="109">
+        <v>4</v>
+      </c>
+      <c r="O27" s="110">
+        <v>102505</v>
+      </c>
+      <c r="P27" s="110">
+        <v>16125</v>
+      </c>
+      <c r="Q27" s="110">
+        <v>34003</v>
+      </c>
+      <c r="R27" s="111">
+        <v>75346</v>
+      </c>
+      <c r="S27" s="110">
+        <v>64807</v>
+      </c>
+      <c r="T27" s="112">
+        <v>103728</v>
+      </c>
+      <c r="U27" s="113">
+        <v>95004.35499999988</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="N28" s="109">
+        <v>5</v>
+      </c>
+      <c r="O28" s="110">
+        <v>71075</v>
+      </c>
+      <c r="P28" s="110">
+        <v>26582</v>
+      </c>
+      <c r="Q28" s="110">
+        <v>30823</v>
+      </c>
+      <c r="R28" s="111">
+        <v>31767</v>
+      </c>
+      <c r="S28" s="110">
+        <v>32028</v>
+      </c>
+      <c r="T28" s="112">
+        <v>37170</v>
+      </c>
+      <c r="U28" s="113">
+        <v>20421.661</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="N29" s="109">
+        <v>6</v>
+      </c>
+      <c r="O29" s="110">
+        <v>12835</v>
+      </c>
+      <c r="P29" s="110">
+        <v>33496</v>
+      </c>
+      <c r="Q29" s="110">
+        <v>12988</v>
+      </c>
+      <c r="R29" s="111">
+        <v>22893</v>
+      </c>
+      <c r="S29" s="110">
+        <v>14904</v>
+      </c>
+      <c r="T29" s="112">
+        <v>8620</v>
+      </c>
+      <c r="U29" s="113">
+        <v>4923.6249999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="N30" s="114">
+        <v>7</v>
+      </c>
+      <c r="O30" s="115">
+        <v>12885</v>
+      </c>
+      <c r="P30" s="115">
+        <v>20550</v>
+      </c>
+      <c r="Q30" s="115">
+        <v>12875</v>
+      </c>
+      <c r="R30" s="116">
+        <v>1280</v>
+      </c>
+      <c r="S30" s="115">
+        <v>6807</v>
+      </c>
+      <c r="T30" s="117">
+        <v>4272</v>
+      </c>
+      <c r="U30" s="118"/>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="N31" s="114">
+        <v>8</v>
+      </c>
+      <c r="O31" s="115">
+        <v>4570</v>
+      </c>
+      <c r="P31" s="115">
+        <v>75</v>
+      </c>
+      <c r="Q31" s="115">
+        <v>89</v>
+      </c>
+      <c r="R31" s="116">
+        <v>48</v>
+      </c>
+      <c r="S31" s="115">
+        <v>6</v>
+      </c>
+      <c r="T31" s="117">
+        <v>12</v>
+      </c>
+      <c r="U31" s="118"/>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="N32" s="114">
+        <v>9</v>
+      </c>
+      <c r="O32" s="115">
+        <v>34</v>
+      </c>
+      <c r="P32" s="115">
+        <v>209</v>
+      </c>
+      <c r="Q32" s="115">
+        <v>13</v>
+      </c>
+      <c r="R32" s="116">
+        <v>162</v>
+      </c>
+      <c r="S32" s="115">
+        <v>14</v>
+      </c>
+      <c r="T32" s="117">
+        <v>2</v>
+      </c>
+      <c r="U32" s="118"/>
+    </row>
+    <row r="33" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N33" s="114">
+        <v>10</v>
+      </c>
+      <c r="O33" s="115">
+        <v>33955</v>
+      </c>
+      <c r="P33" s="115">
+        <v>28423</v>
+      </c>
+      <c r="Q33" s="115">
+        <v>20616</v>
+      </c>
+      <c r="R33" s="116">
+        <v>13483</v>
+      </c>
+      <c r="S33" s="115">
+        <v>1019</v>
+      </c>
+      <c r="T33" s="117">
+        <v>8203</v>
+      </c>
+      <c r="U33" s="118"/>
+    </row>
+    <row r="34" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N34" s="114">
+        <v>11</v>
+      </c>
+      <c r="O34" s="115">
+        <v>79477</v>
+      </c>
+      <c r="P34" s="115">
+        <v>59980</v>
+      </c>
+      <c r="Q34" s="115">
+        <v>28541</v>
+      </c>
+      <c r="R34" s="116">
+        <v>46060</v>
+      </c>
+      <c r="S34" s="115">
+        <v>47575</v>
+      </c>
+      <c r="T34" s="117">
+        <v>30345</v>
+      </c>
+      <c r="U34" s="118"/>
+    </row>
+    <row r="35" spans="14:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="119">
+        <v>12</v>
+      </c>
+      <c r="O35" s="120">
+        <v>23237</v>
+      </c>
+      <c r="P35" s="120">
+        <v>25488</v>
+      </c>
+      <c r="Q35" s="120">
+        <v>13860</v>
+      </c>
+      <c r="R35" s="121">
+        <v>7522</v>
+      </c>
+      <c r="S35" s="120">
+        <v>29704</v>
+      </c>
+      <c r="T35" s="122">
+        <v>27004</v>
+      </c>
+      <c r="U35" s="123"/>
+    </row>
+    <row r="36" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N36" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="O36" s="101">
+        <f t="shared" ref="O36:V36" si="1">+SUM(O24:O35)</f>
+        <v>435863</v>
+      </c>
+      <c r="P36" s="101">
+        <f t="shared" si="1"/>
+        <v>280421</v>
+      </c>
+      <c r="Q36" s="101">
+        <f t="shared" si="1"/>
+        <v>340684</v>
+      </c>
+      <c r="R36" s="101">
+        <f>+SUM(R24:R35)</f>
+        <v>341508</v>
+      </c>
+      <c r="S36" s="101">
+        <f t="shared" ref="S36:T36" si="2">+SUM(S24:S35)</f>
+        <v>318126</v>
+      </c>
+      <c r="T36" s="101">
+        <f t="shared" si="2"/>
+        <v>258089</v>
+      </c>
+      <c r="U36" s="102">
+        <f>+SUM(U24:U35)</f>
+        <v>306406.05599999981</v>
+      </c>
+      <c r="V36" s="97"/>
+    </row>
+    <row r="37" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N37" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="103">
+        <f t="shared" ref="O37:V37" si="3">+SUM(O24:O29)</f>
+        <v>281705</v>
+      </c>
+      <c r="P37" s="103">
+        <f t="shared" si="3"/>
+        <v>145696</v>
+      </c>
+      <c r="Q37" s="104">
+        <f t="shared" si="3"/>
+        <v>264690</v>
+      </c>
+      <c r="R37" s="104">
+        <f t="shared" si="3"/>
+        <v>272953</v>
+      </c>
+      <c r="S37" s="104">
+        <f t="shared" si="3"/>
+        <v>233001</v>
+      </c>
+      <c r="T37" s="104">
+        <f t="shared" si="3"/>
+        <v>188251</v>
+      </c>
+      <c r="U37" s="105">
+        <f t="shared" si="3"/>
+        <v>306406.05599999981</v>
+      </c>
+      <c r="V37" s="97"/>
+    </row>
+    <row r="38" spans="14:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="106">
+        <f t="shared" ref="O38:V38" si="4">+SUM(O30:O35)</f>
+        <v>154158</v>
+      </c>
+      <c r="P38" s="106">
+        <f t="shared" si="4"/>
+        <v>134725</v>
+      </c>
+      <c r="Q38" s="107">
+        <f t="shared" si="4"/>
+        <v>75994</v>
+      </c>
+      <c r="R38" s="107">
+        <f t="shared" si="4"/>
+        <v>68555</v>
+      </c>
+      <c r="S38" s="107">
+        <f t="shared" si="4"/>
+        <v>85125</v>
+      </c>
+      <c r="T38" s="107">
+        <f t="shared" si="4"/>
+        <v>69838</v>
+      </c>
+      <c r="U38" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="V38" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N22:U22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>